--- a/xlsx/零和博弈_intext.xlsx
+++ b/xlsx/零和博弈_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>零和博弈</t>
   </si>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AD%E5%8D%9A</t>
   </si>
   <si>
-    <t>賭博</t>
+    <t>赌博</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E8%B2%A8</t>
   </si>
   <si>
-    <t>期貨</t>
+    <t>期货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%B4%AF%E6%89%98%E6%9C%80%E4%BC%98</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%89%87%E5%BD%A2%E5%BC%8F%E7%9A%84%E5%8D%9A%E5%BC%88</t>
   </si>
   <si>
-    <t>正則形式的博弈</t>
+    <t>正则形式的博弈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%86%AF%C2%B7%E8%AF%BA%E4%BC%8A%E6%9B%BC</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E4%BB%80%E5%9D%87%E8%A1%A1%E9%BB%9E</t>
   </si>
   <si>
-    <t>納什均衡點</t>
+    <t>纳什均衡点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%98%93%E6%88%90%E6%9C%AC</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%99%B7%E9%98%B1</t>
   </si>
   <si>
-    <t>社會陷阱</t>
+    <t>社会陷阱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BD%E9%BB%98</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%96%E7%95%A5%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>策略聯盟</t>
+    <t>策略联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E5%88%A9%E7%9B%8A</t>
   </si>
   <si>
-    <t>絕對利益</t>
+    <t>绝对利益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E4%BC%98%E5%8A%BF</t>
@@ -149,15 +149,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%88%99%E5%BD%A2%E5%BC%8F%E7%9A%84%E5%8D%9A%E5%BC%88</t>
   </si>
   <si>
-    <t>正则形式的博弈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%A9%E5%B1%95%E5%BD%A2%E5%BC%8F%E7%9A%84%E5%8D%9A%E5%BC%88</t>
   </si>
   <si>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%A5%BD_(%E7%B6%93%E6%BF%9F%E5%AD%B8)</t>
   </si>
   <si>
-    <t>偏好 (經濟學)</t>
+    <t>偏好 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%8F%B6%E6%96%AF%E5%8D%9A%E5%BC%88</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%96%E7%95%A5_(%E5%8D%9A%E5%BC%88%E8%AB%96)</t>
   </si>
   <si>
-    <t>策略 (博弈論)</t>
+    <t>策略 (博弈论)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%AF%E9%85%8D%E6%80%A7%E7%AD%96%E7%95%A5</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E6%A1%83%E5%A0%B1%E6%9D%8E</t>
   </si>
   <si>
-    <t>投桃報李</t>
+    <t>投桃报李</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E7%A7%B0%E5%8D%9A%E5%BC%88</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%BD%E5%B0%8F%E9%AC%BC%E5%8D%9A%E5%BC%88</t>
   </si>
   <si>
-    <t>膽小鬼博弈</t>
+    <t>胆小鬼博弈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E6%84%BF%E8%80%85%E5%9B%B0%E5%A2%83</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%AD%E4%BE%BF%E8%BB%8A%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>搭便車問題</t>
+    <t>搭便车问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%8D%E5%8D%96%E7%BE%8E%E5%85%83</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%B9%BF%E8%B3%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>獵鹿賽局</t>
+    <t>猎鹿赛局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Penney%27s_game</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%BE%8C%E9%80%9A%E7%89%92%E8%B3%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>最後通牒賽局</t>
+    <t>最后通牒赛局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B0%E6%B4%BE%E5%8D%9A%E5%BC%88</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%A0%A1%E8%B3%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>上校賽局</t>
+    <t>上校赛局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%93%A6%E6%88%98</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E7%B5%90_(%E8%B3%BD%E5%B1%80%E7%90%86%E8%AB%96)</t>
   </si>
   <si>
-    <t>死結 (賽局理論)</t>
+    <t>死结 (赛局理论)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A8%E9%A4%90%E8%80%85%E5%9B%B0%E5%A2%83</t>
@@ -1439,7 +1436,7 @@
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1465,10 +1462,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1494,10 +1491,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1523,10 +1520,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1552,10 +1549,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1581,10 +1578,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>14</v>
@@ -1639,10 +1636,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1668,10 +1665,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1697,10 +1694,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1726,10 +1723,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1784,10 +1781,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
         <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
       </c>
       <c r="G36" t="n">
         <v>17</v>
@@ -1813,10 +1810,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
         <v>65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1842,10 +1839,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" t="s">
         <v>63</v>
-      </c>
-      <c r="F38" t="s">
-        <v>64</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1871,10 +1868,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
         <v>63</v>
-      </c>
-      <c r="F39" t="s">
-        <v>64</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -1900,10 +1897,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" t="s">
         <v>67</v>
-      </c>
-      <c r="F40" t="s">
-        <v>68</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1929,10 +1926,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s">
         <v>69</v>
-      </c>
-      <c r="F41" t="s">
-        <v>70</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1958,10 +1955,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" t="s">
         <v>71</v>
-      </c>
-      <c r="F42" t="s">
-        <v>72</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1987,10 +1984,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
         <v>73</v>
-      </c>
-      <c r="F43" t="s">
-        <v>74</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2016,10 +2013,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s">
         <v>75</v>
-      </c>
-      <c r="F44" t="s">
-        <v>76</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2045,10 +2042,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" t="s">
         <v>77</v>
-      </c>
-      <c r="F45" t="s">
-        <v>78</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2074,10 +2071,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" t="s">
         <v>79</v>
-      </c>
-      <c r="F46" t="s">
-        <v>80</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2103,10 +2100,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" t="s">
         <v>81</v>
-      </c>
-      <c r="F47" t="s">
-        <v>82</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2132,10 +2129,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" t="s">
         <v>83</v>
-      </c>
-      <c r="F48" t="s">
-        <v>84</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2161,10 +2158,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" t="s">
         <v>85</v>
-      </c>
-      <c r="F49" t="s">
-        <v>86</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2190,10 +2187,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" t="s">
         <v>87</v>
-      </c>
-      <c r="F50" t="s">
-        <v>88</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2219,10 +2216,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
         <v>89</v>
-      </c>
-      <c r="F51" t="s">
-        <v>90</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2248,10 +2245,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
         <v>91</v>
-      </c>
-      <c r="F52" t="s">
-        <v>92</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2277,10 +2274,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
         <v>93</v>
-      </c>
-      <c r="F53" t="s">
-        <v>94</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2306,10 +2303,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
         <v>95</v>
-      </c>
-      <c r="F54" t="s">
-        <v>96</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2335,10 +2332,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" t="s">
         <v>97</v>
-      </c>
-      <c r="F55" t="s">
-        <v>98</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2364,10 +2361,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" t="s">
         <v>99</v>
-      </c>
-      <c r="F56" t="s">
-        <v>100</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2393,10 +2390,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" t="s">
         <v>101</v>
-      </c>
-      <c r="F57" t="s">
-        <v>102</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2422,10 +2419,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" t="s">
         <v>103</v>
-      </c>
-      <c r="F58" t="s">
-        <v>104</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2451,10 +2448,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" t="s">
         <v>105</v>
-      </c>
-      <c r="F59" t="s">
-        <v>106</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2480,10 +2477,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" t="s">
         <v>107</v>
-      </c>
-      <c r="F60" t="s">
-        <v>108</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2509,10 +2506,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" t="s">
         <v>109</v>
-      </c>
-      <c r="F61" t="s">
-        <v>110</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2538,10 +2535,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" t="s">
         <v>111</v>
-      </c>
-      <c r="F62" t="s">
-        <v>112</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2567,10 +2564,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" t="s">
         <v>113</v>
-      </c>
-      <c r="F63" t="s">
-        <v>114</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2596,10 +2593,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" t="s">
         <v>115</v>
-      </c>
-      <c r="F64" t="s">
-        <v>116</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2625,10 +2622,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" t="s">
         <v>117</v>
-      </c>
-      <c r="F65" t="s">
-        <v>118</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2654,10 +2651,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" t="s">
         <v>119</v>
-      </c>
-      <c r="F66" t="s">
-        <v>120</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2683,10 +2680,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
         <v>121</v>
-      </c>
-      <c r="F67" t="s">
-        <v>122</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2712,10 +2709,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" t="s">
         <v>123</v>
-      </c>
-      <c r="F68" t="s">
-        <v>124</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2741,10 +2738,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" t="s">
         <v>125</v>
-      </c>
-      <c r="F69" t="s">
-        <v>126</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2770,10 +2767,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" t="s">
         <v>127</v>
-      </c>
-      <c r="F70" t="s">
-        <v>128</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>

--- a/xlsx/零和博弈_intext.xlsx
+++ b/xlsx/零和博弈_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>零和博弈</t>
   </si>
@@ -29,7 +29,7 @@
     <t>非零和博弈</t>
   </si>
   <si>
-    <t>政策_政策_公共政策_零和博弈</t>
+    <t>体育运动_体育运动_赌博_零和博弈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AE%BA</t>
@@ -98,6 +98,18 @@
     <t>概率</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E4%B8%9E%E7%90%B3</t>
+  </si>
+  <si>
+    <t>楊丞琳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%BE%9D%E6%99%A8</t>
+  </si>
+  <si>
+    <t>林依晨</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E4%BB%80%E5%9D%87%E8%A1%A1%E9%BB%9E</t>
   </si>
   <si>
@@ -336,6 +348,12 @@
   </si>
   <si>
     <t>少数派博弈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%A4%B4%E3%80%81%E5%89%AA%E5%AD%90%E3%80%81%E5%B8%83</t>
+  </si>
+  <si>
+    <t>石头、剪子、布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%97%E5%8D%9A%E5%BC%88</t>
@@ -750,7 +768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,13 +1164,13 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -1175,13 +1193,13 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -1204,13 +1222,13 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -1500,7 +1518,7 @@
         <v>50</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -1558,7 +1576,7 @@
         <v>54</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -1587,7 +1605,7 @@
         <v>56</v>
       </c>
       <c r="G29" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -1610,10 +1628,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1639,13 +1657,13 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -1668,10 +1686,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1697,10 +1715,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1755,10 +1773,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1784,13 +1802,13 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G36" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -1813,10 +1831,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1842,13 +1860,13 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -1871,13 +1889,13 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -1929,13 +1947,13 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -2515,7 +2533,7 @@
         <v>110</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -2602,7 +2620,7 @@
         <v>116</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -2782,6 +2800,93 @@
         <v>4</v>
       </c>
       <c r="I70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" t="s">
+        <v>130</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" t="n">
         <v>3</v>
       </c>
     </row>
